--- a/Data Files/Excel Sheets/LoginCredentials.xlsx
+++ b/Data Files/Excel Sheets/LoginCredentials.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SD466525.DAN001\git\Test-Automation_ToolkitVersion2\Data Files\Excel Sheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1BC1652-3C71-4828-8F6A-F67A481D6632}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9310014E-4539-4048-921A-AC527130B07F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{84E1601C-C313-4A85-9F15-B3A0F63A673C}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
   <si>
     <t>Password</t>
   </si>
@@ -69,6 +69,9 @@
   </si>
   <si>
     <t>Password1!</t>
+  </si>
+  <si>
+    <t>tttt</t>
   </si>
 </sst>
 </file>
@@ -451,7 +454,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -513,6 +516,9 @@
       <c r="A6" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
       <c r="C6" t="s">
         <v>9</v>
       </c>
